--- a/data/dictionary.xlsx
+++ b/data/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusoike/Documents/GitHub/pod-dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusoike/Documents/GitHub/shiny-pod-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D12B47D-178F-E14F-8B06-F8CBC9A5AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1005F2-61AA-794B-B4B0-0F256C67A727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15140" xr2:uid="{62C3B1BF-0828-AB4B-A4F3-699A745D02E8}"/>
+    <workbookView xWindow="7040" yWindow="1760" windowWidth="27640" windowHeight="15140" xr2:uid="{62C3B1BF-0828-AB4B-A4F3-699A745D02E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="157">
   <si>
     <t>hh</t>
   </si>
@@ -71,15 +63,6 @@
     <t>total_young</t>
   </si>
   <si>
-    <t>prop_adult</t>
-  </si>
-  <si>
-    <t>prop_elder</t>
-  </si>
-  <si>
-    <t>prop_young</t>
-  </si>
-  <si>
     <t>aging_index</t>
   </si>
   <si>
@@ -104,18 +87,6 @@
     <t>total_educ_superior</t>
   </si>
   <si>
-    <t>prop_educ_analf</t>
-  </si>
-  <si>
-    <t>prop_educ_fund</t>
-  </si>
-  <si>
-    <t>prop_educ_medio</t>
-  </si>
-  <si>
-    <t>prop_educ_superior</t>
-  </si>
-  <si>
     <t>income_avg</t>
   </si>
   <si>
@@ -140,21 +111,6 @@
     <t>total_high_income</t>
   </si>
   <si>
-    <t>prop_low_income</t>
-  </si>
-  <si>
-    <t>prop_medium_low_income</t>
-  </si>
-  <si>
-    <t>prop_medium_income</t>
-  </si>
-  <si>
-    <t>prop_medium_high_income</t>
-  </si>
-  <si>
-    <t>prop_high_income</t>
-  </si>
-  <si>
     <t>total_jobs_agriculture</t>
   </si>
   <si>
@@ -173,24 +129,6 @@
     <t>total_jobs_services</t>
   </si>
   <si>
-    <t>prop_jobs_agriculture</t>
-  </si>
-  <si>
-    <t>prop_jobs_commerce</t>
-  </si>
-  <si>
-    <t>prop_jobs_industry</t>
-  </si>
-  <si>
-    <t>prop_jobs_other</t>
-  </si>
-  <si>
-    <t>prop_jobs_pub_adm</t>
-  </si>
-  <si>
-    <t>prop_jobs_services</t>
-  </si>
-  <si>
     <t>Número de Domicílios</t>
   </si>
   <si>
@@ -399,19 +337,184 @@
   </si>
   <si>
     <t>Population, elder</t>
+  </si>
+  <si>
+    <t>digits</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>total_state_school</t>
+  </si>
+  <si>
+    <t>share_state_school</t>
+  </si>
+  <si>
+    <t>share_adult</t>
+  </si>
+  <si>
+    <t>share_elder</t>
+  </si>
+  <si>
+    <t>share_young</t>
+  </si>
+  <si>
+    <t>share_educ_analf</t>
+  </si>
+  <si>
+    <t>share_educ_fund</t>
+  </si>
+  <si>
+    <t>share_educ_medio</t>
+  </si>
+  <si>
+    <t>share_educ_superior</t>
+  </si>
+  <si>
+    <t>share_low_income</t>
+  </si>
+  <si>
+    <t>share_medium_low_income</t>
+  </si>
+  <si>
+    <t>share_medium_income</t>
+  </si>
+  <si>
+    <t>share_medium_high_income</t>
+  </si>
+  <si>
+    <t>share_high_income</t>
+  </si>
+  <si>
+    <t>share_jobs_agriculture</t>
+  </si>
+  <si>
+    <t>share_jobs_commerce</t>
+  </si>
+  <si>
+    <t>share_jobs_industry</t>
+  </si>
+  <si>
+    <t>share_jobs_other</t>
+  </si>
+  <si>
+    <t>share_jobs_pub_adm</t>
+  </si>
+  <si>
+    <t>share_jobs_services</t>
+  </si>
+  <si>
+    <t>Aging Index</t>
+  </si>
+  <si>
+    <t>Dependency Ratio</t>
+  </si>
+  <si>
+    <t>Dependency Ratio (Young)</t>
+  </si>
+  <si>
+    <t>Dependency Ratio (Elder)</t>
+  </si>
+  <si>
+    <t>Pop. Illiterate</t>
+  </si>
+  <si>
+    <t>Pop. Primary School</t>
+  </si>
+  <si>
+    <t>Pop. Secondary School</t>
+  </si>
+  <si>
+    <t>Pop. Tertiary School</t>
+  </si>
+  <si>
+    <t>Illiteracy Rate</t>
+  </si>
+  <si>
+    <t>Primary School Rate</t>
+  </si>
+  <si>
+    <t>Secondary School Rate</t>
+  </si>
+  <si>
+    <t>Tertiary School Rate</t>
+  </si>
+  <si>
+    <t>Average Family Income</t>
+  </si>
+  <si>
+    <t>Average Family Income per capita</t>
+  </si>
+  <si>
+    <t>Median Family Income</t>
+  </si>
+  <si>
+    <t>Low Income</t>
+  </si>
+  <si>
+    <t>Medium Income</t>
+  </si>
+  <si>
+    <t>Medium-high Income</t>
+  </si>
+  <si>
+    <t>Medium-low Income</t>
+  </si>
+  <si>
+    <t>High Income</t>
+  </si>
+  <si>
+    <t>Jobs Agriculture</t>
+  </si>
+  <si>
+    <t>Jobs Commerce</t>
+  </si>
+  <si>
+    <t>Jobs Industry</t>
+  </si>
+  <si>
+    <t>Jobs Others</t>
+  </si>
+  <si>
+    <t>Jobs Public Sector</t>
+  </si>
+  <si>
+    <t>Jobs Services</t>
+  </si>
+  <si>
+    <t>State Schools</t>
+  </si>
+  <si>
+    <t>Private Schools</t>
+  </si>
+  <si>
+    <t>share_private_school</t>
+  </si>
+  <si>
+    <t>total_private_school</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,8 +537,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,484 +857,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4753AA56-0A1E-BA4D-9944-129C96730DB9}">
-  <dimension ref="B1:D53"/>
+  <dimension ref="B1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>103</v>
+      <c r="D55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
